--- a/Forecast vs Budget - Power BI - Example.xlsx
+++ b/Forecast vs Budget - Power BI - Example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://purdue-my.sharepoint.com/personal/melissa_bottomley_mundipharmaitservices_com/Documents/MMCL - PowerBI/Forecast Vs Budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbo06\OneDrive - MyPharma\MMCL - PowerBI\Forecast Vs Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B178B6B3-C142-4A89-9899-97692A0EECDF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8F09E39C-F19B-43CA-A8B8-0BF4ABD19913}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{890E6B9D-0F0F-46F8-B405-841727350757}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{890E6B9D-0F0F-46F8-B405-841727350757}"/>
   </bookViews>
   <sheets>
     <sheet name="Date_Dec19" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="29">
   <si>
     <t>Product</t>
   </si>
@@ -131,9 +131,6 @@
   <si>
     <t xml:space="preserve">Profitability </t>
   </si>
-  <si>
-    <t>Date</t>
-  </si>
 </sst>
 </file>
 
@@ -216,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -256,7 +253,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -30059,11 +30055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A97DC93-94D9-42CF-BC2A-824A3BD1DF64}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y4" sqref="Y4"/>
+      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30089,10 +30085,10 @@
     <col min="20" max="21" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30165,11 +30161,8 @@
       <c r="X1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>3781</v>
       </c>
@@ -30246,11 +30239,8 @@
         <f>U2-Q2</f>
         <v>-4170052.831145932</v>
       </c>
-      <c r="Y2" s="21">
-        <v>43800</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2115</v>
       </c>
@@ -30327,11 +30317,8 @@
         <f t="shared" ref="X3" si="4">U3-Q3</f>
         <v>17322180.656224042</v>
       </c>
-      <c r="Y3" s="21">
-        <v>43800</v>
-      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O5" s="18"/>
     </row>
   </sheetData>
@@ -30342,11 +30329,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3670945-4DD5-40F8-A75A-9D2A6753587B}">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30375,7 +30362,7 @@
     <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -30448,11 +30435,8 @@
       <c r="X1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>3781</v>
       </c>
@@ -30530,7 +30514,7 @@
         <v>-4170052.831145932</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2115</v>
       </c>
@@ -30608,7 +30592,7 @@
         <v>17322180.656224042</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O5" s="18"/>
     </row>
   </sheetData>
@@ -31994,15 +31978,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100771A858DA5C3B94988EEF797E6ED750B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="30ad5418006871f298925a1b608ae4c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="91261379-c270-4fa4-90fa-5a2194cc2583" xmlns:ns4="79555126-c56b-4ee1-b067-83cf0f955908" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62829d465b53267e50cc41496ace5945" ns3:_="" ns4:_="">
     <xsd:import namespace="91261379-c270-4fa4-90fa-5a2194cc2583"/>
@@ -32219,6 +32194,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -32226,14 +32210,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F3A531-8D5C-4999-A47D-1CA2A1548B0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CAA49AE-5833-4E82-8643-A1F1A5A63142}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32252,19 +32228,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F3A531-8D5C-4999-A47D-1CA2A1548B0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C091EA11-C543-4C2C-B4C2-EC027E94E5F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="91261379-c270-4fa4-90fa-5a2194cc2583"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="79555126-c56b-4ee1-b067-83cf0f955908"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="79555126-c56b-4ee1-b067-83cf0f955908"/>
-    <ds:schemaRef ds:uri="91261379-c270-4fa4-90fa-5a2194cc2583"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>